--- a/野火NRF24L01与各开发板引脚连接说明.xlsx
+++ b/野火NRF24L01与各开发板引脚连接说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="86">
   <si>
     <t>NRF24L01模块与各开发板引脚连接说明</t>
   </si>
@@ -66,13 +66,16 @@
     <t>引脚说明</t>
   </si>
   <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>供电 3.3V</t>
+  </si>
+  <si>
     <t>GND</t>
   </si>
   <si>
-    <t>供电 3.3V</t>
-  </si>
-  <si>
-    <t>3.3V</t>
+    <t>CE</t>
   </si>
   <si>
     <t>信号输出引脚</t>
@@ -81,9 +84,6 @@
     <t>3V3</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>PA15</t>
   </si>
   <si>
@@ -238,6 +238,42 @@
   </si>
   <si>
     <t>在单板测试中给出的只是第二个NRF的连接说明，其第一个NRF连接与双板测试一样</t>
+  </si>
+  <si>
+    <t>H750_Pro开发板（双板）</t>
+  </si>
+  <si>
+    <t>H750_Pro开发板（单板）</t>
+  </si>
+  <si>
+    <t>H743_Pro开发板（双板）</t>
+  </si>
+  <si>
+    <t>H743_Pro开发板 (单)</t>
+  </si>
+  <si>
+    <t>H743挑战者_V2开发板（双）</t>
+  </si>
+  <si>
+    <t>H743挑战者_V2开发板（单）</t>
+  </si>
+  <si>
+    <t>F767挑战者_V2开发板（双）</t>
+  </si>
+  <si>
+    <t>F767挑战者_V2开发板（单）</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PG10</t>
+  </si>
+  <si>
+    <t>PI3</t>
+  </si>
+  <si>
+    <t>PA12</t>
   </si>
 </sst>
 </file>
@@ -245,19 +281,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +339,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,25 +413,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,74 +467,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -438,30 +482,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,181 +516,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,6 +800,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -790,54 +883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -852,195 +897,184 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,25 +1092,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1427,17 +1467,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="14" width="25.5" style="2" customWidth="1"/>
+    <col min="4" max="7" width="25.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="2" customWidth="1"/>
+    <col min="9" max="14" width="25.5" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1534,37 +1576,37 @@
         <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:14">
@@ -1572,43 +1614,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:14">
@@ -1616,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>22</v>
@@ -1883,7 +1925,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" ht="14.25" spans="2:5">
       <c r="B14" s="19" t="s">
         <v>72</v>
       </c>
@@ -1893,12 +1935,343 @@
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:11">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6">
+        <v>5</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="6">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="6">
+        <v>7</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="13">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D3:N3"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
